--- a/Codes/MATLAB/POLYFEM/PWQ_Testing.xlsx
+++ b/Codes/MATLAB/POLYFEM/PWQ_Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>b1</t>
   </si>
@@ -102,6 +102,36 @@
   </si>
   <si>
     <t>(0.25,1)</t>
+  </si>
+  <si>
+    <t>(0.25,0.25)</t>
+  </si>
+  <si>
+    <t>(0.25,0.24999)</t>
+  </si>
+  <si>
+    <t>(0.25,0.25001)</t>
+  </si>
+  <si>
+    <t>(0.25,0.75)</t>
+  </si>
+  <si>
+    <t>(0.25,0.74999)</t>
+  </si>
+  <si>
+    <t>(0.25,0.75001)</t>
+  </si>
+  <si>
+    <t>(0.5,0.49999)</t>
+  </si>
+  <si>
+    <t>(0.50001,0.5)</t>
+  </si>
+  <si>
+    <t>(0.5,0.50001)</t>
+  </si>
+  <si>
+    <t>(0.49999,0.5)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,6 +298,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,19 +598,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="17" width="9.42578125" style="1" customWidth="1"/>
     <col min="18" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
@@ -617,8 +672,41 @@
       <c r="S1" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="T1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,8 +764,41 @@
       <c r="S2" s="4">
         <v>0</v>
       </c>
+      <c r="T2" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.31250875005000001</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.31248875009999999</v>
+      </c>
+      <c r="W2" s="16">
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <v>-1.24994999999191E-6</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>1.25009999999912E-6</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>2.5000500000274501E-6</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>-2.4999499999775499E-6</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>-2.4999499999775499E-6</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>2.5000500000274501E-6</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -735,8 +856,41 @@
       <c r="S3" s="7">
         <v>0</v>
       </c>
+      <c r="T3" s="13">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>1.2500500000036501E-6</v>
+      </c>
+      <c r="V3" s="15">
+        <v>-1.2499999999908401E-6</v>
+      </c>
+      <c r="W3" s="5">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="X3" s="6">
+        <v>-6.2498749950000002E-2</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>-6.2498749999999999E-2</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>2.5000500000274501E-6</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>2.5000499999997E-6</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>-2.4999499999775499E-6</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>-2.4999500000053E-6</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -794,8 +948,41 @@
       <c r="S4" s="7">
         <v>6.25E-2</v>
       </c>
+      <c r="T4" s="5">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>-6.2498749950000002E-2</v>
+      </c>
+      <c r="V4" s="7">
+        <v>-6.2498749999999999E-2</v>
+      </c>
+      <c r="W4" s="13">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1.2500499999949801E-6</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>-1.2499999999908401E-6</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>-2.4999500000053E-6</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>2.5000499999997E-6</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>2.5000499999997E-6</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>-2.4999500000053E-6</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,8 +1040,41 @@
       <c r="S5" s="7">
         <v>0.5625</v>
       </c>
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>-1.24995000000058E-6</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1.25009999999912E-6</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.31250875005000001</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.31248875009999999</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>-2.4999500000053E-6</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>-2.4999499999775499E-6</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>2.5000499999997E-6</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>2.5000500000274501E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,8 +1132,41 @@
       <c r="S6" s="7">
         <v>0</v>
       </c>
+      <c r="T6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0.24999750000000001</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0.12499499999999999</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0.12500249999999999</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0.24999999989999999</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0.24999499999999999</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.24999999989999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -971,8 +1224,41 @@
       <c r="S7" s="7">
         <v>0</v>
       </c>
+      <c r="T7" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.1249974999</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.1249974999</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0.24999999989999999</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>0.24999999989999999</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.24999499999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1316,41 @@
       <c r="S8" s="7">
         <v>0.375</v>
       </c>
+      <c r="T8" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0.12499499999999999</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0.12500249999999999</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.24999750000000001</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0.24999499999999999</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0.24999999989999999</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.24999999989999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,8 +1408,41 @@
       <c r="S9" s="10">
         <v>0</v>
       </c>
+      <c r="T9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.2499924999</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0.25000999979999999</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0.2499924999</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0.25000999979999999</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0.24999999989999999</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0.24999499999999999</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0.24999999989999999</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0.25000499999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="S10" s="1"/>
     </row>
   </sheetData>
